--- a/mytest.xlsx
+++ b/mytest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\dataset.api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4485208D-F9F5-441A-9285-ECF45244D4C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D89FC-31C8-4CF8-87C0-5EFF15744F7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{80141366-28F3-4420-8885-F9FD5EE0E5E4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>tableName</t>
   </si>
@@ -205,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +608,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
